--- a/Thesis/Penelitian Mandiri V dan VII/data input.xlsx
+++ b/Thesis/Penelitian Mandiri V dan VII/data input.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve">code_gula</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t xml:space="preserve">proporsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiplicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost_obj_func</t>
   </si>
   <si>
     <t xml:space="preserve">code_product</t>
@@ -193,10 +199,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B7"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -223,6 +229,12 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -242,6 +254,14 @@
       </c>
       <c r="F2" s="0" t="n">
         <v>22.1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">100/F2</f>
+        <v>4.52488687782805</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">E2*G2</f>
+        <v>74870.5429864253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -263,6 +283,14 @@
       <c r="F3" s="0" t="n">
         <v>55.4</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">100/F3</f>
+        <v>1.80505415162455</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">E3*G3</f>
+        <v>29790.559566787</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -283,6 +311,14 @@
       <c r="F4" s="0" t="n">
         <v>1.8</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">100/F4</f>
+        <v>55.5555555555556</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">E4*G4</f>
+        <v>1561680</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -303,6 +339,14 @@
       <c r="F5" s="0" t="n">
         <v>8.2</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">100/F5</f>
+        <v>12.1951219512195</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">E5*G5</f>
+        <v>362399.268292683</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -323,6 +367,14 @@
       <c r="F6" s="0" t="n">
         <v>0.8</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">100/F6</f>
+        <v>125</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">E6*G6</f>
+        <v>3725000</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -342,6 +394,14 @@
       </c>
       <c r="F7" s="0" t="n">
         <v>11.7</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">100/F7</f>
+        <v>8.54700854700855</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">E7*G7</f>
+        <v>129851.282051282</v>
       </c>
     </row>
   </sheetData>
@@ -363,7 +423,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:B7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -373,25 +433,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,7 +1478,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="B2:B7 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1429,25 +1489,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,14 +2396,14 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="B2:B7 C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,23 +2430,23 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B7"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Thesis/Penelitian Mandiri V dan VII/data input.xlsx
+++ b/Thesis/Penelitian Mandiri V dan VII/data input.xlsx
@@ -202,7 +202,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -241,7 +241,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>100000</v>
+        <f aca="false">RANDBETWEEN(50,70)*1000</f>
+        <v>65000</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>100000</v>
@@ -269,7 +270,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>100000</v>
+        <f aca="false">RANDBETWEEN(50,70)*1000</f>
+        <v>57000</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>20000</v>
@@ -297,7 +299,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>100000</v>
+        <f aca="false">RANDBETWEEN(50,70)*1000</f>
+        <v>66000</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>150000</v>
@@ -325,7 +328,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>100000</v>
+        <f aca="false">RANDBETWEEN(50,70)*1000</f>
+        <v>50000</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>16000</v>
@@ -353,7 +357,8 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>100000</v>
+        <f aca="false">RANDBETWEEN(50,70)*1000</f>
+        <v>70000</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>20000</v>
@@ -381,7 +386,8 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>100000</v>
+        <f aca="false">RANDBETWEEN(50,70)*1000</f>
+        <v>61000</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>16000</v>
@@ -423,7 +429,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1477,8 +1483,8 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="B2:B7 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2396,7 +2402,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="B2:B7 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2430,7 +2436,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2457,10 +2463,10 @@
         <v>4000</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>58000</v>
+        <v>5800</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>35000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2471,10 +2477,10 @@
         <v>2700</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>68000</v>
+        <v>6800</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>64000</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,10 +2491,10 @@
         <v>2200</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>74000</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,10 +2505,10 @@
         <v>2200</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>78000</v>
+        <v>7800</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>30000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,10 +2519,10 @@
         <v>1900</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>60000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,10 +2533,10 @@
         <v>2700</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>48000</v>
+        <v>4800</v>
       </c>
     </row>
   </sheetData>
